--- a/Input/ADNT_Local/benefits1.xlsx
+++ b/Input/ADNT_Local/benefits1.xlsx
@@ -237,13 +237,13 @@
     <t xml:space="preserve">Covered with AED 50 deductible</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered in full with ___ co-pay</t>
+    <t xml:space="preserve">Medicines covered in full with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,000 for children up to 6 years as per DOH guidelines</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with ___ deductible</t>
+    <t xml:space="preserve">Covered in full with $ deductible</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full subject to pre-approval</t>
@@ -393,7 +393,7 @@
 Consultations covered with AED 50 deductible</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 3,000 with ___ co-pay</t>
+    <t xml:space="preserve">Medicines covered up to AED 3,000 with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full with AED 30 deductible</t>
@@ -513,35 +513,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH1" activeCellId="0" sqref="BH1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="17" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="70.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="57.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="26.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="114.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="72.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Input/ADNT_Local/benefits1.xlsx
+++ b/Input/ADNT_Local/benefits1.xlsx
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-01</t>
+    <t xml:space="preserve">2024-01-22</t>
   </si>
   <si>
     <t xml:space="preserve">adnt_local</t>
@@ -401,7 +401,7 @@
   <si>
     <t xml:space="preserve">OP: Coveredin full with AED 50 deductible for consultation
 IP: Inside AUH- Covered in full with AED 500 deductible
-Outside AUH- Covered up to AED 10,00 with AED 500 deductible</t>
+Outside AUH- Covered up to AED 10,000 with AED 500 deductible</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -439,6 +439,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -490,8 +495,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,7 +516,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,183 +543,184 @@
   </sheetPr>
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE3" activeCellId="0" sqref="BE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="57.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="26.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="114.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="72.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="78.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="1" t="s">
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="1" t="s">
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="1" t="s">
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="BF1" s="0" t="s">
@@ -725,163 +739,163 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="226.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="3"/>
+      <c r="X2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="1" t="s">
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="1" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="1" t="s">
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BF2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BG2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="3" t="s">
         <v>94</v>
       </c>
       <c r="BI2" s="0" t="s">
@@ -891,456 +905,456 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="226.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="1" t="s">
+      <c r="W3" s="3"/>
+      <c r="X3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="1" t="s">
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="1" t="s">
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AG3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="1" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AS3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AT3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="1" t="s">
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AX3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AY3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BA3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BB3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BC3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BD3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BH3" s="3" t="s">
         <v>106</v>
       </c>
       <c r="BI3" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="294.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="246.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="1" t="s">
+      <c r="J4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="T4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="1" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="1" t="s">
+      <c r="AJ4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AS4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AT4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="1" t="s">
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AX4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AY4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BA4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BB4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BC4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BD4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BI4" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="226.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="1" t="s">
+      <c r="J5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="T5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="1" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="1" t="s">
+      <c r="AJ5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AS5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AT5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="1" t="s">
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AX5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AY5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BA5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BB5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BC5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BD5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="BI5" s="0" t="s">
